--- a/TestData/Book1.xlsx
+++ b/TestData/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="3990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
